--- a/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
+++ b/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki\home\src\RedPen.NET\RedPen.Net.CoreTests\NewFeatureResearch\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335A0E3-FBDB-48AD-8E7A-088331E0A3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38280F1-14A4-41F2-A0AF-A01D587BC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1656" windowWidth="26976" windowHeight="15024" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
+    <workbookView xWindow="240" yWindow="3996" windowWidth="26976" windowHeight="15024" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="常体敬体変換総引き当て表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常体敬体変換総引き当て表!$A$1:$O$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常体敬体変換総引き当て表!$A$1:$O$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="183">
   <si>
     <t>笑う</t>
     <rPh sb="0" eb="1">
@@ -1247,6 +1247,51 @@
   </si>
   <si>
     <t>やがりまして</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人を笑わせる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04_使役4</t>
+    <rPh sb="3" eb="5">
+      <t>シエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人を笑わせます</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :セル</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1315,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1371,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,11 +1710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1830,6 +1878,9 @@
       <c r="B4" t="s">
         <v>145</v>
       </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -1840,10 +1891,10 @@
         <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>86</v>
@@ -1957,43 +2008,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
         <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -2001,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2010,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
@@ -2028,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -2045,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2054,13 +2102,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
@@ -2069,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -2086,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2095,16 +2146,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
@@ -2113,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -2130,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2138,17 +2186,17 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>95</v>
+      <c r="F11" t="s">
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -2156,17 +2204,17 @@
       <c r="K11" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>99</v>
+      <c r="L11" t="s">
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -2174,7 +2222,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2182,17 +2230,17 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>96</v>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
@@ -2200,17 +2248,17 @@
       <c r="K12" t="s">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>100</v>
+      <c r="L12" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
         <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -2218,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -2227,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
         <v>1</v>
@@ -2245,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" t="s">
         <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -2262,7 +2310,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -2271,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -2289,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14" t="s">
         <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -2306,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -2315,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
         <v>1</v>
@@ -2333,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="N15" t="s">
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -2350,7 +2398,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -2358,17 +2406,17 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>115</v>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -2377,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -2394,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -2402,17 +2450,17 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>117</v>
+      <c r="F17" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
         <v>1</v>
@@ -2421,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -2438,31 +2486,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -2470,31 +2530,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
-        <v>60</v>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
         <v>65</v>
       </c>
-      <c r="L19" t="s">
-        <v>64</v>
+      <c r="L19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -2502,31 +2562,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s">
         <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -2534,31 +2594,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -2566,40 +2626,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="O22" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -2607,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -2616,16 +2667,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
         <v>86</v>
@@ -2634,16 +2682,16 @@
         <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -2651,40 +2699,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" t="s">
-        <v>75</v>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="N24" t="s">
         <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -2692,22 +2743,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
         <v>1</v>
@@ -2716,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N25" t="s">
         <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2733,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -2741,14 +2795,17 @@
       <c r="E26" t="s">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
         <v>1</v>
@@ -2757,16 +2814,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
         <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2774,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -2783,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" t="s">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
         <v>1</v>
@@ -2798,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s">
         <v>81</v>
@@ -2810,12 +2867,48 @@
         <v>83</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O25" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O25">
-      <sortCondition ref="A1:A25"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
+++ b/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki\home\src\RedPen.NET\RedPen.Net.CoreTests\NewFeatureResearch\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38280F1-14A4-41F2-A0AF-A01D587BC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201BA13-73BA-40EF-980B-3CA216010C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3996" windowWidth="26976" windowHeight="15024" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
+    <workbookView xWindow="9408" yWindow="864" windowWidth="27240" windowHeight="20712" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="常体敬体変換総引き当て表" sheetId="1" r:id="rId1"/>
+    <sheet name="保留" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常体敬体変換総引き当て表!$A$1:$O$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常体敬体変換総引き当て表!$A$1:$O$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="278">
   <si>
     <t>笑う</t>
     <rPh sb="0" eb="1">
@@ -1292,6 +1293,667 @@
     <rPh sb="5" eb="8">
       <t>ミゼンケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形容詞・アウオ段</t>
+  </si>
+  <si>
+    <t>四角い</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形容詞・イ段</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美しい</t>
+    <rPh sb="0" eb="1">
+      <t>ウツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きれい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれる</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれた</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くした</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くする</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしやがって</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物を四角くする</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>07_打ち消しの意思推量</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うまい</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :マイ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05_打ち消し3</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わぬ</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :ヌ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五段・ワ行促音便</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :マセ + :ヌ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ませぬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いますまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ますまい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :マス + :マイ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11_様態伝聞</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそうだ</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うようだ</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12_たとえ推定例示</t>
+    <rPh sb="6" eb="8">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うよう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそうである</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うようである</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうである</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>よう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようである</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ + :ダ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ + :デ + :アル</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそうです</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うようです</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ + :デス</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそうだった</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうだった</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ + :ダッ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いそうでした</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうでした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用形 + :ソウ + :デシ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レンヨウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うようだった</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようだった</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うようでした</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ようでした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持続1</t>
+    <rPh sb="0" eb="2">
+      <t>ジゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持続2</t>
+    <rPh sb="0" eb="2">
+      <t>ジゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑っている</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑っていた</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ていた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :テ + :イル</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑っています</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑っていました</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ています</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ていました</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :テ + :イ + :マス</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :テ + :イ + :マシ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑いませぬ</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :デス</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :デス</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :デシ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :ダ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :ダッ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ヨウ + :デ + :アル</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :テ + :イ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サ入り言葉1</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サ入り言葉2</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わさせる</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わさせた</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>させる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わさせます</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わさせました</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :サセル</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :セ + :マス</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :セ + :マシ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:未然形 + :セ + :タ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五段・サ行</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑わす</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せました</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せた</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1346,12 +2008,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1373,7 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,11 +2387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2025,10 +2702,10 @@
       <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
       <c r="L7" t="s">
@@ -2137,7 +2814,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2145,32 +2822,35 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
+      <c r="F10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -2178,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2187,16 +2867,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -2205,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -2222,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2230,17 +2907,17 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
+      <c r="F12" t="s">
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
@@ -2248,17 +2925,17 @@
       <c r="K12" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>99</v>
+      <c r="L12" t="s">
+        <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
         <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -2266,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -2275,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
+        <v>196</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="J13" t="s">
         <v>1</v>
@@ -2293,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="N13" t="s">
         <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -2310,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -2318,17 +2995,17 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>97</v>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -2336,17 +3013,17 @@
       <c r="K14" t="s">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
-        <v>101</v>
+      <c r="L14" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
         <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -2354,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -2363,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
         <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
         <v>1</v>
@@ -2381,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -2398,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -2407,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -2425,16 +3102,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s">
         <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -2442,7 +3119,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -2450,17 +3127,17 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>115</v>
+      <c r="F17" t="s">
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
         <v>1</v>
@@ -2469,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -2486,7 +3163,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -2495,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
         <v>1</v>
@@ -2513,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -2530,31 +3207,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>216</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>222</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>70</v>
+        <v>253</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -2562,31 +3251,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>217</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>223</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>253</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -2594,31 +3295,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>230</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>231</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>233</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -2626,31 +3339,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>253</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -2658,40 +3383,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>219</v>
       </c>
       <c r="H23" t="s">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -2699,43 +3427,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="N24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -2743,25 +3471,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>236</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
         <v>1</v>
@@ -2770,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2787,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -2795,17 +3523,17 @@
       <c r="E26" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>76</v>
+      <c r="F26" t="s">
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>79</v>
+        <v>221</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
         <v>1</v>
@@ -2814,16 +3542,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2831,7 +3559,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -2839,14 +3567,17 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>79</v>
+      <c r="F27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="J27" t="s">
         <v>1</v>
@@ -2855,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="N27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2872,45 +3603,1506 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="s">
+        <v>275</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="s">
+        <v>276</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>246</v>
+      </c>
+      <c r="M37" t="s">
+        <v>248</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>247</v>
+      </c>
+      <c r="M38" t="s">
+        <v>249</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>164</v>
       </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I42" t="s">
         <v>169</v>
       </c>
-      <c r="J28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>168</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M42" t="s">
         <v>81</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N42" t="s">
         <v>8</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O42" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O40" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O42">
+      <sortCondition ref="B1:B40"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B34DE-764F-480F-BB2D-DB4B1A2E261B}">
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
+++ b/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki\home\src\RedPen.NET\RedPen.Net.CoreTests\NewFeatureResearch\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201BA13-73BA-40EF-980B-3CA216010C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BB647F-AA18-4354-A28F-3F213299B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="864" windowWidth="27240" windowHeight="20712" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
+    <workbookView xWindow="16116" yWindow="828" windowWidth="27240" windowHeight="20712" activeTab="1" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="常体敬体変換総引き当て表" sheetId="1" r:id="rId1"/>
-    <sheet name="保留" sheetId="2" r:id="rId2"/>
+    <sheet name="動詞" sheetId="1" r:id="rId1"/>
+    <sheet name="形容詞" sheetId="2" r:id="rId2"/>
+    <sheet name="形容動詞" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">常体敬体変換総引き当て表!$A$1:$O$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">動詞!$A$1:$O$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="278">
   <si>
     <t>笑う</t>
     <rPh sb="0" eb="1">
@@ -2389,9 +2390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4218,10 +4219,688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B34DE-764F-480F-BB2D-DB4B1A2E261B}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7943C1-DCF2-4937-8D98-6E6CF1A21FFE}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4277,827 +4956,215 @@
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>156</v>
-      </c>
-      <c r="E84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" t="s">
         <v>187</v>
       </c>
     </row>

--- a/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
+++ b/RedPen.Net.CoreTests/NewFeatureResearch/DATA/常体敬体変換総引き当て表.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki\home\src\RedPen.NET\RedPen.Net.CoreTests\NewFeatureResearch\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BB647F-AA18-4354-A28F-3F213299B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC00C8-7A4F-4738-978F-1D95F5BDA847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16116" yWindow="828" windowWidth="27240" windowHeight="20712" activeTab="1" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" activeTab="1" xr2:uid="{883AE242-7215-4BCC-95A7-A0F19054F0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="動詞" sheetId="1" r:id="rId1"/>
     <sheet name="形容詞" sheetId="2" r:id="rId2"/>
     <sheet name="形容動詞" sheetId="3" r:id="rId3"/>
+    <sheet name="保留" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">動詞!$A$1:$O$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">動詞!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="365">
   <si>
     <t>笑う</t>
     <rPh sb="0" eb="1">
@@ -1297,9 +1298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>形容詞・アウオ段</t>
-  </si>
-  <si>
     <t>四角い</t>
     <rPh sb="0" eb="2">
       <t>シカク</t>
@@ -1307,17 +1305,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>形容詞・イ段</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>美しい</t>
-    <rPh sb="0" eb="1">
-      <t>ウツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>きれい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1330,6 +1317,13 @@
   </si>
   <si>
     <t>四角くなれた</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたい</t>
     <rPh sb="0" eb="2">
       <t>シカク</t>
     </rPh>
@@ -1471,16 +1465,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>11_様態伝聞</t>
-    <rPh sb="3" eb="5">
-      <t>ヨウタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>デンブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>笑いそう</t>
     <rPh sb="0" eb="1">
       <t>ワラ</t>
@@ -1498,16 +1482,6 @@
     <t>笑うようだ</t>
     <rPh sb="0" eb="1">
       <t>ワラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12_たとえ推定例示</t>
-    <rPh sb="6" eb="8">
-      <t>スイテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1955,6 +1929,664 @@
   </si>
   <si>
     <t>せた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形容詞・アウオ段</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くない</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなかった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角かった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうだ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうだった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうである</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなっている</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなっていた</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれよ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれ！</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれ。</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたかった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたがる</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたがった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いようだ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いようだった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いようである</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いよう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いらしい</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いらしかった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11_様態伝聞1</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11_様態伝聞2</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11_様態伝聞3</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11_様態伝聞4</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12_たとえ推定例示1</t>
+    <rPh sb="6" eb="8">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12_たとえ推定例示2</t>
+    <rPh sb="6" eb="8">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12_たとえ推定例示3</t>
+    <rPh sb="6" eb="8">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12_たとえ推定例示4</t>
+    <rPh sb="6" eb="8">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06_意思推量3</t>
+    <rPh sb="3" eb="5">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うだろう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だろう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :ダロ + :ウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑うでしょう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>でしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:基本形 + :デショ + :ウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑っただろう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただろう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :タ + :ダロ + :ウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑ったでしょう</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たでしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>::動詞:連用タ接続 + :タ + :デショ + :ウ</t>
+    <rPh sb="2" eb="4">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いだろう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角かっただろう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くさせる</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くさせた</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなろう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなるまい</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角だ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角だった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角である</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角であった</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれます</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなれました</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くさせます</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くさせました</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くありません</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くありませんでした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりましょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いでしょう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角かったでしょう</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりますまい</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたいです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたかったです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたがります</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしたがりました</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角かったです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうです</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうでした</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角そうです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いようです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いようでした</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いらしいです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角いらしかったです</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角です</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角でした</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなっています</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなっていました</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりなさい</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりなさいよ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりなさい！</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くなりなさい。</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くします</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしました</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角くしやがりまして</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物を四角くします</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角からぬ</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角ではありません</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2009,27 +2641,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2038,7 +2655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2051,8 +2668,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,11 +3011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2405,7 +3028,7 @@
     <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.3984375" bestFit="1" customWidth="1"/>
@@ -2815,7 +3438,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2824,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -2944,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -2953,16 +3576,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="J13" t="s">
         <v>1</v>
@@ -2971,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N13" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" t="s">
-        <v>207</v>
+        <v>310</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -2988,7 +3611,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -2996,17 +3619,17 @@
       <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>95</v>
+      <c r="F14" t="s">
+        <v>312</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
+        <v>313</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -3014,17 +3637,17 @@
       <c r="K14" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>99</v>
+      <c r="L14" t="s">
+        <v>315</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>113</v>
+        <v>316</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -3032,7 +3655,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -3041,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
+        <v>194</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="J15" t="s">
         <v>1</v>
@@ -3059,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="N15" t="s">
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -3076,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -3084,17 +3707,17 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>97</v>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -3102,17 +3725,17 @@
       <c r="K16" t="s">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>101</v>
+      <c r="L16" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
         <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -3120,7 +3743,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -3129,16 +3752,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
         <v>1</v>
@@ -3147,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
         <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -3164,7 +3787,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -3173,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
         <v>1</v>
@@ -3191,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -3208,7 +3831,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -3217,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
         <v>1</v>
@@ -3235,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="N19" t="s">
         <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -3252,7 +3875,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -3261,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
         <v>1</v>
@@ -3279,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
         <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -3296,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -3305,16 +3928,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
         <v>1</v>
@@ -3323,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s">
         <v>8</v>
       </c>
       <c r="O21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -3340,7 +3963,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -3349,16 +3972,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
         <v>1</v>
@@ -3367,16 +3990,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N22" t="s">
         <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -3384,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -3393,16 +4016,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -3411,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -3428,7 +4051,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -3437,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
         <v>220</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>258</v>
       </c>
       <c r="J24" t="s">
         <v>1</v>
@@ -3455,16 +4078,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -3472,7 +4095,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -3481,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="H25" t="s">
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
         <v>1</v>
@@ -3499,16 +4122,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s">
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -3516,7 +4139,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -3525,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H26" t="s">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
         <v>1</v>
@@ -3543,16 +4166,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N26" t="s">
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -3560,7 +4183,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -3568,17 +4191,17 @@
       <c r="E27" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>115</v>
+      <c r="F27" t="s">
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s">
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
         <v>1</v>
@@ -3587,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s">
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -3604,7 +4227,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -3613,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="H28" t="s">
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
         <v>1</v>
@@ -3631,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="N28" t="s">
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -3648,31 +4271,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>118</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>116</v>
       </c>
       <c r="M29" t="s">
-        <v>70</v>
+        <v>120</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -3680,31 +4315,43 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -3712,24 +4359,24 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
-        <v>61</v>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s">
         <v>65</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M31" t="s">
@@ -3744,19 +4391,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
         <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s">
         <v>65</v>
@@ -3776,40 +4423,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -3817,43 +4455,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M34" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -3861,46 +4487,40 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>274</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s">
+        <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>275</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>8</v>
       </c>
       <c r="O35" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -3908,43 +4528,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
-      </c>
-      <c r="F36" t="s">
-        <v>265</v>
+        <v>85</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="M36" t="s">
-        <v>276</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
       </c>
       <c r="O36" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -3952,7 +4572,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>258</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -3961,34 +4584,34 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="L37" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M37" t="s">
-        <v>248</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>43</v>
+        <v>271</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="O37" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -3996,43 +4619,43 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>273</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s">
-        <v>249</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>43</v>
+        <v>272</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="O38" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -4040,25 +4663,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>85</v>
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s">
-        <v>8</v>
+        <v>237</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="J39" t="s">
         <v>1</v>
@@ -4067,16 +4690,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" t="s">
-        <v>8</v>
+        <v>244</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -4084,7 +4707,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -4092,17 +4715,17 @@
       <c r="E40" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>76</v>
+      <c r="F40" t="s">
+        <v>238</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>79</v>
+        <v>240</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="J40" t="s">
         <v>1</v>
@@ -4111,16 +4734,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="M40" t="s">
-        <v>82</v>
-      </c>
-      <c r="N40" t="s">
-        <v>8</v>
+        <v>245</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -4128,22 +4751,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
         <v>1</v>
@@ -4152,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
         <v>81</v>
@@ -4169,7 +4795,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -4177,14 +4803,17 @@
       <c r="E42" t="s">
         <v>0</v>
       </c>
-      <c r="F42" t="s">
-        <v>166</v>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
+        <v>178</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
         <v>1</v>
@@ -4193,22 +4822,104 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N42" t="s">
         <v>8</v>
       </c>
       <c r="O42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>168</v>
+      </c>
+      <c r="M44" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O40" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O42">
-      <sortCondition ref="B1:B40"/>
+  <autoFilter ref="A1:O42" xr:uid="{B90AA6CF-D481-4BCD-B203-2353D0DB51F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O44">
+      <sortCondition ref="B1:B42"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
@@ -4219,675 +4930,982 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97B34DE-764F-480F-BB2D-DB4B1A2E261B}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.59765625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="19.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="31.59765625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F7" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+      <c r="F23" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F39" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="F40" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="F41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="F43" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
+      <c r="F44" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="R44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4900,10 +5918,22 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -4957,7 +5987,7 @@
         <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -4965,7 +5995,7 @@
         <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -4973,7 +6003,7 @@
         <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -4981,7 +6011,7 @@
         <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -4989,7 +6019,7 @@
         <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -4997,7 +6027,7 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -5005,7 +6035,7 @@
         <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -5013,7 +6043,7 @@
         <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -5021,7 +6051,7 @@
         <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -5029,7 +6059,7 @@
         <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -5037,7 +6067,7 @@
         <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -5045,7 +6075,7 @@
         <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -5053,7 +6083,7 @@
         <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -5061,7 +6091,7 @@
         <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -5069,7 +6099,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
@@ -5077,7 +6107,7 @@
         <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
@@ -5085,7 +6115,7 @@
         <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
@@ -5093,7 +6123,7 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
@@ -5101,7 +6131,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
@@ -5109,7 +6139,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
@@ -5117,7 +6147,7 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
@@ -5125,7 +6155,7 @@
         <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
@@ -5133,7 +6163,7 @@
         <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
@@ -5141,7 +6171,7 @@
         <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
@@ -5149,7 +6179,7 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
@@ -5157,7 +6187,7 @@
         <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
@@ -5165,11 +6195,24 @@
         <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A1345-D615-4CB2-A53E-EA86F392D34B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>